--- a/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>productname</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>448b</t>
+  </si>
+  <si>
+    <t>4mm5</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,8 +579,8 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>4480</v>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
